--- a/Analysis/Argon Summary.xlsx
+++ b/Analysis/Argon Summary.xlsx
@@ -589,12 +589,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="0.00000"/>
     <numFmt numFmtId="60" formatCode="0.0#########E+00"/>
     <numFmt numFmtId="61" formatCode="0.0####E+00"/>
     <numFmt numFmtId="62" formatCode="0.0########E+00"/>
+    <numFmt numFmtId="63" formatCode="0.0##########E+00"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -802,7 +803,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -924,6 +925,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="62" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="63" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -6150,7 +6154,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
       <c r="H3" s="17">
-        <v>2.48201</v>
+        <v>2.2951</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="14"/>
@@ -6180,7 +6184,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="22">
         <f>SUM(I9:I10,I12:I16,I18:I22,I24:I27,I29:I32,I34:I39,I41:I44,I46:I60,I62:I65,I67:I70)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="21"/>
@@ -6239,7 +6243,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="24">
         <f>(H5-H4)*H3+H4*LN(H5)</f>
-        <v>1840.8089345368</v>
+        <v>1721.691374360570</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="21"/>
@@ -6490,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="36">
-        <v>1.272e-07</v>
+        <v>4.56e-08</v>
       </c>
       <c r="K13" s="22">
         <v>0</v>
@@ -6540,7 +6544,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="22">
-        <v>0.977</v>
+        <v>0.9789</v>
       </c>
       <c r="K14" s="22">
         <v>0.9</v>
@@ -6719,8 +6723,8 @@
       <c r="I19" s="31">
         <v>1</v>
       </c>
-      <c r="J19" s="36">
-        <v>1.248e-07</v>
+      <c r="J19" s="41">
+        <v>6.723e-08</v>
       </c>
       <c r="K19" s="22">
         <v>0</v>
@@ -6770,7 +6774,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="22">
-        <v>0.9618</v>
+        <v>0.9631</v>
       </c>
       <c r="K20" s="22">
         <v>0.9</v>
@@ -6912,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="22">
-        <v>67.58</v>
+        <v>75</v>
       </c>
       <c r="K24" s="22">
         <v>30</v>
@@ -6987,13 +6991,17 @@
         <v>36</v>
       </c>
       <c r="I26" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="22">
-        <v>2.148</v>
-      </c>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
+        <v>2.25</v>
+      </c>
+      <c r="K26" s="22">
+        <v>2</v>
+      </c>
+      <c r="L26" s="22">
+        <v>2.25</v>
+      </c>
       <c r="M26" s="21"/>
       <c r="N26" t="s" s="32">
         <v>36</v>
@@ -7102,7 +7110,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="22">
-        <v>6.05</v>
+        <v>5.939</v>
       </c>
       <c r="K29" s="22">
         <v>0</v>
@@ -7186,7 +7194,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="22">
-        <v>1.024</v>
+        <v>1.04</v>
       </c>
       <c r="K31" s="22">
         <v>0.7</v>
@@ -7236,13 +7244,13 @@
         <v>1</v>
       </c>
       <c r="J32" s="22">
-        <v>54.93</v>
+        <v>75</v>
       </c>
       <c r="K32" s="22">
         <v>25</v>
       </c>
       <c r="L32" s="22">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="M32" s="21"/>
       <c r="N32" t="s" s="32">
@@ -7314,7 +7322,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="22">
-        <v>7.868</v>
+        <v>7.36</v>
       </c>
       <c r="K34" s="22">
         <v>0</v>
@@ -7364,7 +7372,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="22">
-        <v>1.899</v>
+        <v>1.898</v>
       </c>
       <c r="K35" s="22">
         <v>0.9419999999999999</v>
@@ -7484,7 +7492,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="22">
-        <v>9.069000000000001</v>
+        <v>9.042999999999999</v>
       </c>
       <c r="K38" s="22">
         <v>8.239000000000001</v>
@@ -7534,7 +7542,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="22">
-        <v>109.1</v>
+        <v>109.2</v>
       </c>
       <c r="K39" s="22">
         <v>98</v>
@@ -7612,7 +7620,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="22">
-        <v>3.393</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="K41" s="22">
         <v>0</v>
@@ -7694,7 +7702,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="22">
-        <v>6.443</v>
+        <v>6.419</v>
       </c>
       <c r="K43" s="22">
         <v>5.446</v>
@@ -7744,7 +7752,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="22">
-        <v>46.31</v>
+        <v>47.7</v>
       </c>
       <c r="K44" s="22">
         <v>30</v>
@@ -7820,7 +7828,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="22">
-        <v>74.20999999999999</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="K46" s="22">
         <v>5</v>
@@ -7870,7 +7878,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="22">
-        <v>0.1236</v>
+        <v>0.07683</v>
       </c>
       <c r="K47" s="22">
         <v>0</v>
@@ -7920,7 +7928,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="22">
-        <v>0.2804</v>
+        <v>0.2193</v>
       </c>
       <c r="K48" s="22">
         <v>0</v>
@@ -7970,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="22">
-        <v>0.5331</v>
+        <v>0.517</v>
       </c>
       <c r="K49" s="22">
         <v>0</v>
@@ -8020,7 +8028,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="22">
-        <v>0.7751</v>
+        <v>0.646</v>
       </c>
       <c r="K50" s="22">
         <v>0</v>
@@ -8070,7 +8078,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="22">
-        <v>0.9997</v>
+        <v>1</v>
       </c>
       <c r="K51" s="22">
         <v>0</v>
@@ -8114,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J52" s="22">
-        <v>0.7736</v>
+        <v>0.6448</v>
       </c>
       <c r="K52" s="22">
         <v>0</v>
@@ -8202,7 +8210,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="22">
-        <v>0.3762</v>
+        <v>0.3816</v>
       </c>
       <c r="K54" s="22">
         <v>0</v>
@@ -8252,7 +8260,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="22">
-        <v>0.0357</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="K55" s="22">
         <v>0</v>
@@ -8302,7 +8310,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="22">
-        <v>0.2228</v>
+        <v>0.234</v>
       </c>
       <c r="K56" s="22">
         <v>0</v>
@@ -8352,7 +8360,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="22">
-        <v>0.08092000000000001</v>
+        <v>0.04105</v>
       </c>
       <c r="K57" s="22">
         <v>0</v>
@@ -8402,7 +8410,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="22">
-        <v>0.1198</v>
+        <v>0.1065</v>
       </c>
       <c r="K58" s="22">
         <v>0</v>
@@ -8446,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="22">
-        <v>0.1106</v>
+        <v>0.07839</v>
       </c>
       <c r="K59" s="22">
         <v>0</v>
@@ -8560,7 +8568,7 @@
         <v>1</v>
       </c>
       <c r="J62" s="22">
-        <v>8.548</v>
+        <v>8.792999999999999</v>
       </c>
       <c r="K62" s="22">
         <v>0</v>
@@ -8642,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="22">
-        <v>3.948</v>
+        <v>3.979</v>
       </c>
       <c r="K64" s="22">
         <v>2.705</v>
@@ -8692,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="22">
-        <v>214.4</v>
+        <v>207.5</v>
       </c>
       <c r="K65" s="22">
         <v>200</v>
@@ -9067,19 +9075,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="41" customWidth="1"/>
-    <col min="2" max="2" width="21.3516" style="41" customWidth="1"/>
-    <col min="3" max="3" width="8.35156" style="41" customWidth="1"/>
-    <col min="4" max="6" width="10" style="41" customWidth="1"/>
-    <col min="7" max="7" width="3.35156" style="41" customWidth="1"/>
-    <col min="8" max="8" width="21.3516" style="41" customWidth="1"/>
-    <col min="9" max="9" width="8.35156" style="41" customWidth="1"/>
-    <col min="10" max="12" width="10" style="41" customWidth="1"/>
-    <col min="13" max="13" width="3.35156" style="41" customWidth="1"/>
-    <col min="14" max="14" width="21.3516" style="41" customWidth="1"/>
-    <col min="15" max="15" width="8.35156" style="41" customWidth="1"/>
-    <col min="16" max="18" width="10" style="41" customWidth="1"/>
-    <col min="19" max="16384" width="16.3516" style="41" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="42" customWidth="1"/>
+    <col min="2" max="2" width="21.3516" style="42" customWidth="1"/>
+    <col min="3" max="3" width="8.35156" style="42" customWidth="1"/>
+    <col min="4" max="6" width="10" style="42" customWidth="1"/>
+    <col min="7" max="7" width="3.35156" style="42" customWidth="1"/>
+    <col min="8" max="8" width="21.3516" style="42" customWidth="1"/>
+    <col min="9" max="9" width="8.35156" style="42" customWidth="1"/>
+    <col min="10" max="12" width="10" style="42" customWidth="1"/>
+    <col min="13" max="13" width="3.35156" style="42" customWidth="1"/>
+    <col min="14" max="14" width="21.3516" style="42" customWidth="1"/>
+    <col min="15" max="15" width="8.35156" style="42" customWidth="1"/>
+    <col min="16" max="18" width="10" style="42" customWidth="1"/>
+    <col min="19" max="16384" width="16.3516" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">

--- a/Analysis/Argon Summary.xlsx
+++ b/Analysis/Argon Summary.xlsx
@@ -215,11 +215,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="0.00000"/>
     <numFmt numFmtId="60" formatCode="0.000E+00"/>
-    <numFmt numFmtId="61" formatCode="0.000"/>
+    <numFmt numFmtId="61" formatCode="0.0####E+00"/>
+    <numFmt numFmtId="62" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -385,7 +386,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -467,10 +468,13 @@
     <xf numFmtId="60" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="61" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="62" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1655,7 +1659,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="7">
-        <v>2.019</v>
+        <v>2.02138</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -1663,7 +1667,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11">
-        <v>1.995</v>
+        <v>2.00222</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
@@ -1671,7 +1675,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="11">
-        <v>2.018</v>
+        <v>2.01103</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="9"/>
@@ -1679,7 +1683,7 @@
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
       <c r="T3" s="11">
-        <v>2.044</v>
+        <v>2.03383</v>
       </c>
       <c r="U3" s="8"/>
       <c r="V3" s="9"/>
@@ -1693,7 +1697,7 @@
       </c>
       <c r="B4" s="13">
         <f>SUM(C3:C55)</f>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -1702,7 +1706,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16">
         <f>SUM(I3:I55)</f>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="15"/>
@@ -1711,7 +1715,7 @@
       <c r="M4" s="15"/>
       <c r="N4" s="16">
         <f>SUM(O3:O55)</f>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="15"/>
@@ -1720,7 +1724,7 @@
       <c r="S4" s="15"/>
       <c r="T4" s="16">
         <f>SUM(U3:U55)</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="U4" s="14"/>
       <c r="V4" s="15"/>
@@ -1771,7 +1775,7 @@
       </c>
       <c r="B6" s="17">
         <f>(B5-B4)*B3+B4*LN(B5)</f>
-        <v>1544.260614184330</v>
+        <v>1523.242855065490</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -1780,7 +1784,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="18">
         <f>(H5-H4)*H3+H4*LN(H5)</f>
-        <v>1528.468614184330</v>
+        <v>1510.539775065490</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
@@ -1789,7 +1793,7 @@
       <c r="M6" s="15"/>
       <c r="N6" s="18">
         <f>(N5-N4)*N3+N4*LN(N5)</f>
-        <v>1543.602614184330</v>
+        <v>1516.380805065490</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="15"/>
@@ -1798,7 +1802,7 @@
       <c r="S6" s="15"/>
       <c r="T6" s="18">
         <f>(T5-T4)*T3+T4*LN(T5)</f>
-        <v>1547.228194713030</v>
+        <v>1522.488585417960</v>
       </c>
       <c r="U6" s="14"/>
       <c r="V6" s="15"/>
@@ -1913,46 +1917,62 @@
         <v>1</v>
       </c>
       <c r="D9" s="26">
-        <v>4.36312832162552e-08</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+        <v>8.365e-08</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="27">
+        <v>1e-05</v>
+      </c>
       <c r="G9" s="15"/>
-      <c r="H9" t="s" s="27">
+      <c r="H9" t="s" s="28">
         <v>17</v>
       </c>
       <c r="I9" s="25">
         <v>1</v>
       </c>
       <c r="J9" s="26">
-        <v>1.71181033563902e-08</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+        <v>5.754e-08</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9" s="27">
+        <v>1e-05</v>
+      </c>
       <c r="M9" s="15"/>
-      <c r="N9" t="s" s="27">
+      <c r="N9" t="s" s="28">
         <v>17</v>
       </c>
       <c r="O9" s="25">
         <v>1</v>
       </c>
       <c r="P9" s="26">
-        <v>5.92984332506925e-08</v>
-      </c>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
+        <v>2.888e-08</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="R9" s="27">
+        <v>1e-05</v>
+      </c>
       <c r="S9" s="15"/>
-      <c r="T9" t="s" s="27">
+      <c r="T9" t="s" s="28">
         <v>17</v>
       </c>
       <c r="U9" s="25">
         <v>1</v>
       </c>
       <c r="V9" s="26">
-        <v>9.515e-08</v>
-      </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
+        <v>6.339e-08</v>
+      </c>
+      <c r="W9" s="16">
+        <v>0</v>
+      </c>
+      <c r="X9" s="27">
+        <v>1e-05</v>
+      </c>
       <c r="Y9" s="15"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -1963,47 +1983,63 @@
       <c r="C10" s="25">
         <v>1</v>
       </c>
-      <c r="D10" s="28">
-        <v>0.97489256573776</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="D10" s="29">
+        <v>0.9745</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1.1</v>
+      </c>
       <c r="G10" s="15"/>
-      <c r="H10" t="s" s="27">
+      <c r="H10" t="s" s="28">
         <v>18</v>
       </c>
       <c r="I10" s="25">
         <v>1</v>
       </c>
-      <c r="J10" s="28">
-        <v>0.97767940844266</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="J10" s="29">
+        <v>0.9756</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1.1</v>
+      </c>
       <c r="M10" s="15"/>
-      <c r="N10" t="s" s="27">
+      <c r="N10" t="s" s="28">
         <v>18</v>
       </c>
       <c r="O10" s="25">
         <v>1</v>
       </c>
-      <c r="P10" s="28">
-        <v>0.974909242347238</v>
-      </c>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
+      <c r="P10" s="29">
+        <v>0.9752999999999999</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="R10" s="16">
+        <v>1.1</v>
+      </c>
       <c r="S10" s="15"/>
-      <c r="T10" t="s" s="27">
+      <c r="T10" t="s" s="28">
         <v>18</v>
       </c>
       <c r="U10" s="25">
         <v>1</v>
       </c>
-      <c r="V10" s="28">
-        <v>0.97616</v>
-      </c>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
+      <c r="V10" s="29">
+        <v>0.9766</v>
+      </c>
+      <c r="W10" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="X10" s="16">
+        <v>1.1</v>
+      </c>
       <c r="Y10" s="15"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -2015,102 +2051,134 @@
         <v>1</v>
       </c>
       <c r="D11" s="26">
-        <v>3.70615743066191e-08</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+        <v>8.748e-08</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="27">
+        <v>1e-05</v>
+      </c>
       <c r="G11" s="15"/>
-      <c r="H11" t="s" s="27">
+      <c r="H11" t="s" s="28">
         <v>19</v>
       </c>
       <c r="I11" s="25">
         <v>1</v>
       </c>
       <c r="J11" s="26">
-        <v>2.73896046004862e-08</v>
-      </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+        <v>1.826e-08</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="27">
+        <v>1e-05</v>
+      </c>
       <c r="M11" s="15"/>
-      <c r="N11" t="s" s="27">
+      <c r="N11" t="s" s="28">
         <v>19</v>
       </c>
       <c r="O11" s="25">
         <v>1</v>
       </c>
       <c r="P11" s="26">
-        <v>4.65713014440314e-08</v>
-      </c>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
+        <v>3.921e-08</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>0</v>
+      </c>
+      <c r="R11" s="27">
+        <v>1e-05</v>
+      </c>
       <c r="S11" s="15"/>
-      <c r="T11" t="s" s="27">
+      <c r="T11" t="s" s="28">
         <v>19</v>
       </c>
       <c r="U11" s="25">
         <v>1</v>
       </c>
       <c r="V11" s="26">
-        <v>1.071078e-07</v>
-      </c>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
+        <v>6.529e-08</v>
+      </c>
+      <c r="W11" s="16">
+        <v>0</v>
+      </c>
+      <c r="X11" s="27">
+        <v>1e-05</v>
+      </c>
       <c r="Y11" s="15"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" t="s" s="24">
         <v>20</v>
       </c>
       <c r="C12" s="25">
         <v>1</v>
       </c>
-      <c r="D12" s="28">
-        <v>0.962880955542648</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="D12" s="29">
+        <v>0.9615</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1.1</v>
+      </c>
       <c r="G12" s="15"/>
-      <c r="H12" t="s" s="27">
+      <c r="H12" t="s" s="28">
         <v>20</v>
       </c>
       <c r="I12" s="25">
         <v>1</v>
       </c>
-      <c r="J12" s="28">
-        <v>0.963463531993873</v>
-      </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="J12" s="29">
+        <v>0.927</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="L12" s="16">
+        <v>1.1</v>
+      </c>
       <c r="M12" s="15"/>
-      <c r="N12" t="s" s="27">
+      <c r="N12" t="s" s="28">
         <v>20</v>
       </c>
       <c r="O12" s="25">
         <v>1</v>
       </c>
-      <c r="P12" s="28">
-        <v>0.95916391412757</v>
-      </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
+      <c r="P12" s="29">
+        <v>0.9603</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="R12" s="16">
+        <v>1.1</v>
+      </c>
       <c r="S12" s="15"/>
-      <c r="T12" t="s" s="27">
+      <c r="T12" t="s" s="28">
         <v>20</v>
       </c>
       <c r="U12" s="25">
         <v>1</v>
       </c>
-      <c r="V12" s="28">
-        <v>0.9645</v>
-      </c>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
+      <c r="V12" s="29">
+        <v>0.9766</v>
+      </c>
+      <c r="W12" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="X12" s="16">
+        <v>1.1</v>
+      </c>
       <c r="Y12" s="15"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" t="s" s="30">
+      <c r="B13" t="s" s="31">
         <v>21</v>
       </c>
       <c r="C13" s="15"/>
@@ -2118,7 +2186,7 @@
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" t="s" s="31">
+      <c r="H13" t="s" s="32">
         <v>21</v>
       </c>
       <c r="I13" s="15"/>
@@ -2126,7 +2194,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" t="s" s="31">
+      <c r="N13" t="s" s="32">
         <v>21</v>
       </c>
       <c r="O13" s="15"/>
@@ -2134,7 +2202,7 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
-      <c r="T13" t="s" s="31">
+      <c r="T13" t="s" s="32">
         <v>21</v>
       </c>
       <c r="U13" s="15"/>
@@ -2151,47 +2219,63 @@
       <c r="C14" s="25">
         <v>1</v>
       </c>
-      <c r="D14" s="28">
-        <v>29.1275519207844</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="D14" s="29">
+        <v>29.32</v>
+      </c>
+      <c r="E14" s="16">
+        <v>10</v>
+      </c>
+      <c r="F14" s="16">
+        <v>100</v>
+      </c>
       <c r="G14" s="15"/>
-      <c r="H14" t="s" s="27">
+      <c r="H14" t="s" s="28">
         <v>22</v>
       </c>
       <c r="I14" s="25">
         <v>1</v>
       </c>
-      <c r="J14" s="28">
-        <v>31.3317435430154</v>
-      </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="J14" s="29">
+        <v>30.9</v>
+      </c>
+      <c r="K14" s="16">
+        <v>10</v>
+      </c>
+      <c r="L14" s="16">
+        <v>100</v>
+      </c>
       <c r="M14" s="15"/>
-      <c r="N14" t="s" s="27">
+      <c r="N14" t="s" s="28">
         <v>22</v>
       </c>
       <c r="O14" s="25">
         <v>1</v>
       </c>
-      <c r="P14" s="28">
-        <v>35.2037492769274</v>
-      </c>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
+      <c r="P14" s="29">
+        <v>37.73</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>10</v>
+      </c>
+      <c r="R14" s="16">
+        <v>100</v>
+      </c>
       <c r="S14" s="15"/>
-      <c r="T14" t="s" s="27">
+      <c r="T14" t="s" s="28">
         <v>22</v>
       </c>
       <c r="U14" s="25">
         <v>1</v>
       </c>
-      <c r="V14" s="28">
-        <v>32.27843</v>
-      </c>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
+      <c r="V14" s="29">
+        <v>33.47</v>
+      </c>
+      <c r="W14" s="16">
+        <v>10</v>
+      </c>
+      <c r="X14" s="16">
+        <v>100</v>
+      </c>
       <c r="Y14" s="15"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
@@ -2202,43 +2286,43 @@
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="29">
         <v>0</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
-      <c r="H15" t="s" s="27">
+      <c r="H15" t="s" s="28">
         <v>23</v>
       </c>
       <c r="I15" s="25">
         <v>0</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="29">
         <v>0</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
-      <c r="N15" t="s" s="27">
+      <c r="N15" t="s" s="28">
         <v>23</v>
       </c>
       <c r="O15" s="25">
         <v>0</v>
       </c>
-      <c r="P15" s="28">
+      <c r="P15" s="29">
         <v>0</v>
       </c>
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
-      <c r="T15" t="s" s="27">
+      <c r="T15" t="s" s="28">
         <v>23</v>
       </c>
       <c r="U15" s="25">
         <v>0</v>
       </c>
-      <c r="V15" s="28">
+      <c r="V15" s="29">
         <v>0</v>
       </c>
       <c r="W15" s="15"/>
@@ -2253,43 +2337,43 @@
       <c r="C16" s="25">
         <v>0</v>
       </c>
-      <c r="D16" s="28">
-        <v>0</v>
+      <c r="D16" s="29">
+        <v>2.071</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" t="s" s="27">
+      <c r="H16" t="s" s="28">
         <v>24</v>
       </c>
       <c r="I16" s="25">
         <v>0</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="29">
         <v>2.071</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
-      <c r="N16" t="s" s="27">
+      <c r="N16" t="s" s="28">
         <v>24</v>
       </c>
       <c r="O16" s="25">
         <v>0</v>
       </c>
-      <c r="P16" s="28">
-        <v>0</v>
+      <c r="P16" s="29">
+        <v>2.071</v>
       </c>
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
-      <c r="T16" t="s" s="27">
+      <c r="T16" t="s" s="28">
         <v>24</v>
       </c>
       <c r="U16" s="25">
         <v>0</v>
       </c>
-      <c r="V16" s="28">
+      <c r="V16" s="29">
         <v>2.071</v>
       </c>
       <c r="W16" s="15"/>
@@ -2304,52 +2388,52 @@
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="28">
-        <v>0</v>
+      <c r="D17" s="29">
+        <v>5000</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" t="s" s="27">
+      <c r="H17" t="s" s="28">
         <v>25</v>
       </c>
       <c r="I17" s="25">
         <v>0</v>
       </c>
-      <c r="J17" s="28">
-        <v>0</v>
+      <c r="J17" s="29">
+        <v>5000</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
-      <c r="N17" t="s" s="27">
+      <c r="N17" t="s" s="28">
         <v>25</v>
       </c>
       <c r="O17" s="25">
         <v>0</v>
       </c>
-      <c r="P17" s="28">
-        <v>0</v>
+      <c r="P17" s="29">
+        <v>5000</v>
       </c>
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
-      <c r="T17" t="s" s="27">
+      <c r="T17" t="s" s="28">
         <v>25</v>
       </c>
       <c r="U17" s="25">
         <v>0</v>
       </c>
-      <c r="V17" s="28">
-        <v>0</v>
+      <c r="V17" s="29">
+        <v>5000</v>
       </c>
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" t="s" s="30">
+      <c r="A18" s="30"/>
+      <c r="B18" t="s" s="31">
         <v>26</v>
       </c>
       <c r="C18" s="15"/>
@@ -2357,7 +2441,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
-      <c r="H18" t="s" s="31">
+      <c r="H18" t="s" s="32">
         <v>26</v>
       </c>
       <c r="I18" s="15"/>
@@ -2365,7 +2449,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
-      <c r="N18" t="s" s="31">
+      <c r="N18" t="s" s="32">
         <v>26</v>
       </c>
       <c r="O18" s="15"/>
@@ -2373,7 +2457,7 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
-      <c r="T18" t="s" s="31">
+      <c r="T18" t="s" s="32">
         <v>26</v>
       </c>
       <c r="U18" s="15"/>
@@ -2390,47 +2474,63 @@
       <c r="C19" s="25">
         <v>1</v>
       </c>
-      <c r="D19" s="28">
-        <v>5.63530981188083</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="D19" s="29">
+        <v>5.627</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>20</v>
+      </c>
       <c r="G19" s="15"/>
-      <c r="H19" t="s" s="27">
+      <c r="H19" t="s" s="28">
         <v>22</v>
       </c>
       <c r="I19" s="25">
         <v>1</v>
       </c>
-      <c r="J19" s="28">
-        <v>5.74844111374785</v>
-      </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="J19" s="29">
+        <v>5.712</v>
+      </c>
+      <c r="K19" s="16">
+        <v>0</v>
+      </c>
+      <c r="L19" s="16">
+        <v>20</v>
+      </c>
       <c r="M19" s="15"/>
-      <c r="N19" t="s" s="27">
+      <c r="N19" t="s" s="28">
         <v>22</v>
       </c>
       <c r="O19" s="25">
         <v>1</v>
       </c>
-      <c r="P19" s="28">
-        <v>5.709822962112</v>
-      </c>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
+      <c r="P19" s="29">
+        <v>5.65</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>0</v>
+      </c>
+      <c r="R19" s="16">
+        <v>20</v>
+      </c>
       <c r="S19" s="15"/>
-      <c r="T19" t="s" s="27">
+      <c r="T19" t="s" s="28">
         <v>22</v>
       </c>
       <c r="U19" s="25">
         <v>1</v>
       </c>
-      <c r="V19" s="28">
-        <v>5.75959</v>
-      </c>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
+      <c r="V19" s="29">
+        <v>5.747</v>
+      </c>
+      <c r="W19" s="16">
+        <v>0</v>
+      </c>
+      <c r="X19" s="16">
+        <v>20</v>
+      </c>
       <c r="Y19" s="15"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
@@ -2441,43 +2541,43 @@
       <c r="C20" s="25">
         <v>0</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="29">
         <v>0</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" t="s" s="27">
+      <c r="H20" t="s" s="28">
         <v>23</v>
       </c>
       <c r="I20" s="25">
         <v>0</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="29">
         <v>0</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" t="s" s="27">
+      <c r="N20" t="s" s="28">
         <v>23</v>
       </c>
       <c r="O20" s="25">
         <v>0</v>
       </c>
-      <c r="P20" s="28">
+      <c r="P20" s="29">
         <v>0</v>
       </c>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
-      <c r="T20" t="s" s="27">
+      <c r="T20" t="s" s="28">
         <v>23</v>
       </c>
       <c r="U20" s="25">
         <v>0</v>
       </c>
-      <c r="V20" s="28">
+      <c r="V20" s="29">
         <v>0</v>
       </c>
       <c r="W20" s="15"/>
@@ -2492,47 +2592,63 @@
       <c r="C21" s="25">
         <v>1</v>
       </c>
-      <c r="D21" s="28">
-        <v>1.05747544266122</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="D21" s="29">
+        <v>1.131</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="F21" s="16">
+        <v>5</v>
+      </c>
       <c r="G21" s="15"/>
-      <c r="H21" t="s" s="27">
+      <c r="H21" t="s" s="28">
         <v>24</v>
       </c>
       <c r="I21" s="25">
         <v>1</v>
       </c>
-      <c r="J21" s="28">
-        <v>1.01924708813559</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="J21" s="29">
+        <v>1.07</v>
+      </c>
+      <c r="K21" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="L21" s="16">
+        <v>5</v>
+      </c>
       <c r="M21" s="15"/>
-      <c r="N21" t="s" s="27">
+      <c r="N21" t="s" s="28">
         <v>24</v>
       </c>
       <c r="O21" s="25">
         <v>1</v>
       </c>
-      <c r="P21" s="28">
-        <v>1.12873928452399</v>
-      </c>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
+      <c r="P21" s="29">
+        <v>1.111</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="R21" s="16">
+        <v>5</v>
+      </c>
       <c r="S21" s="15"/>
-      <c r="T21" t="s" s="27">
+      <c r="T21" t="s" s="28">
         <v>24</v>
       </c>
       <c r="U21" s="25">
         <v>1</v>
       </c>
-      <c r="V21" s="28">
-        <v>1.0660039</v>
-      </c>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
+      <c r="V21" s="29">
+        <v>1.06</v>
+      </c>
+      <c r="W21" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="X21" s="16">
+        <v>5</v>
+      </c>
       <c r="Y21" s="15"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
@@ -2543,52 +2659,68 @@
       <c r="C22" s="25">
         <v>1</v>
       </c>
-      <c r="D22" s="28">
-        <v>90.42127284888311</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="D22" s="29">
+        <v>87.63</v>
+      </c>
+      <c r="E22" s="16">
+        <v>25</v>
+      </c>
+      <c r="F22" s="16">
+        <v>200</v>
+      </c>
       <c r="G22" s="15"/>
-      <c r="H22" t="s" s="27">
+      <c r="H22" t="s" s="28">
         <v>25</v>
       </c>
       <c r="I22" s="25">
         <v>1</v>
       </c>
-      <c r="J22" s="28">
-        <v>89.3551023460094</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+      <c r="J22" s="29">
+        <v>89.56</v>
+      </c>
+      <c r="K22" s="16">
+        <v>25</v>
+      </c>
+      <c r="L22" s="16">
+        <v>200</v>
+      </c>
       <c r="M22" s="15"/>
-      <c r="N22" t="s" s="27">
+      <c r="N22" t="s" s="28">
         <v>25</v>
       </c>
       <c r="O22" s="25">
         <v>1</v>
       </c>
-      <c r="P22" s="28">
-        <v>94.9864158139623</v>
-      </c>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
+      <c r="P22" s="29">
+        <v>94.94</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>25</v>
+      </c>
+      <c r="R22" s="16">
+        <v>200</v>
+      </c>
       <c r="S22" s="15"/>
-      <c r="T22" t="s" s="27">
+      <c r="T22" t="s" s="28">
         <v>25</v>
       </c>
       <c r="U22" s="25">
         <v>1</v>
       </c>
-      <c r="V22" s="28">
-        <v>89.655</v>
-      </c>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
+      <c r="V22" s="29">
+        <v>90.92</v>
+      </c>
+      <c r="W22" s="16">
+        <v>25</v>
+      </c>
+      <c r="X22" s="16">
+        <v>200</v>
+      </c>
       <c r="Y22" s="15"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="19"/>
-      <c r="B23" t="s" s="30">
+      <c r="B23" t="s" s="31">
         <v>27</v>
       </c>
       <c r="C23" s="15"/>
@@ -2596,7 +2728,7 @@
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
-      <c r="H23" t="s" s="31">
+      <c r="H23" t="s" s="32">
         <v>27</v>
       </c>
       <c r="I23" s="15"/>
@@ -2604,7 +2736,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
-      <c r="N23" t="s" s="31">
+      <c r="N23" t="s" s="32">
         <v>27</v>
       </c>
       <c r="O23" s="15"/>
@@ -2612,7 +2744,7 @@
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
-      <c r="T23" t="s" s="31">
+      <c r="T23" t="s" s="32">
         <v>27</v>
       </c>
       <c r="U23" s="15"/>
@@ -2629,47 +2761,63 @@
       <c r="C24" s="25">
         <v>1</v>
       </c>
-      <c r="D24" s="28">
-        <v>7.72409739148267</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="D24" s="29">
+        <v>7.25</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <v>20</v>
+      </c>
       <c r="G24" s="15"/>
-      <c r="H24" t="s" s="27">
+      <c r="H24" t="s" s="28">
         <v>22</v>
       </c>
       <c r="I24" s="25">
         <v>1</v>
       </c>
-      <c r="J24" s="28">
-        <v>7.54768435664329</v>
-      </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="J24" s="29">
+        <v>7.464</v>
+      </c>
+      <c r="K24" s="16">
+        <v>0</v>
+      </c>
+      <c r="L24" s="16">
+        <v>20</v>
+      </c>
       <c r="M24" s="15"/>
-      <c r="N24" t="s" s="27">
+      <c r="N24" t="s" s="28">
         <v>22</v>
       </c>
       <c r="O24" s="25">
         <v>1</v>
       </c>
-      <c r="P24" s="28">
-        <v>7.58102452649605</v>
-      </c>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
+      <c r="P24" s="29">
+        <v>7.701</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>0</v>
+      </c>
+      <c r="R24" s="16">
+        <v>20</v>
+      </c>
       <c r="S24" s="15"/>
-      <c r="T24" t="s" s="27">
+      <c r="T24" t="s" s="28">
         <v>22</v>
       </c>
       <c r="U24" s="25">
         <v>1</v>
       </c>
-      <c r="V24" s="28">
-        <v>7.44998</v>
-      </c>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
+      <c r="V24" s="29">
+        <v>7.418</v>
+      </c>
+      <c r="W24" s="16">
+        <v>0</v>
+      </c>
+      <c r="X24" s="16">
+        <v>20</v>
+      </c>
       <c r="Y24" s="15"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
@@ -2680,47 +2828,63 @@
       <c r="C25" s="25">
         <v>1</v>
       </c>
-      <c r="D25" s="28">
-        <v>1.91705057730305</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="D25" s="29">
+        <v>1.911</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="F25" s="16">
+        <v>2.942</v>
+      </c>
       <c r="G25" s="15"/>
-      <c r="H25" t="s" s="27">
+      <c r="H25" t="s" s="28">
         <v>23</v>
       </c>
       <c r="I25" s="25">
         <v>1</v>
       </c>
-      <c r="J25" s="28">
-        <v>1.91613230513462</v>
-      </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
+      <c r="J25" s="29">
+        <v>1.916</v>
+      </c>
+      <c r="K25" s="16">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="L25" s="16">
+        <v>2.942</v>
+      </c>
       <c r="M25" s="15"/>
-      <c r="N25" t="s" s="27">
+      <c r="N25" t="s" s="28">
         <v>23</v>
       </c>
       <c r="O25" s="25">
         <v>1</v>
       </c>
-      <c r="P25" s="28">
-        <v>1.92916746355072</v>
-      </c>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
+      <c r="P25" s="29">
+        <v>1.924</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="R25" s="16">
+        <v>2.942</v>
+      </c>
       <c r="S25" s="15"/>
-      <c r="T25" t="s" s="27">
+      <c r="T25" t="s" s="28">
         <v>23</v>
       </c>
       <c r="U25" s="25">
         <v>1</v>
       </c>
-      <c r="V25" s="28">
-        <v>1.91626</v>
-      </c>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
+      <c r="V25" s="29">
+        <v>1.919</v>
+      </c>
+      <c r="W25" s="16">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="X25" s="16">
+        <v>2.942</v>
+      </c>
       <c r="Y25" s="15"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
@@ -2731,47 +2895,63 @@
       <c r="C26" s="25">
         <v>1</v>
       </c>
-      <c r="D26" s="28">
-        <v>9.00182998370158</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="D26" s="29">
+        <v>9.025</v>
+      </c>
+      <c r="E26" s="16">
+        <v>8.239000000000001</v>
+      </c>
+      <c r="F26" s="16">
+        <v>10.239</v>
+      </c>
       <c r="G26" s="15"/>
-      <c r="H26" t="s" s="27">
+      <c r="H26" t="s" s="28">
         <v>24</v>
       </c>
       <c r="I26" s="25">
         <v>1</v>
       </c>
-      <c r="J26" s="28">
-        <v>8.990027347101041</v>
-      </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
+      <c r="J26" s="29">
+        <v>9</v>
+      </c>
+      <c r="K26" s="16">
+        <v>8.239000000000001</v>
+      </c>
+      <c r="L26" s="16">
+        <v>10.239</v>
+      </c>
       <c r="M26" s="15"/>
-      <c r="N26" t="s" s="27">
+      <c r="N26" t="s" s="28">
         <v>24</v>
       </c>
       <c r="O26" s="25">
         <v>1</v>
       </c>
-      <c r="P26" s="28">
-        <v>9.01909870228736</v>
-      </c>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
+      <c r="P26" s="29">
+        <v>9.02</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>8.239000000000001</v>
+      </c>
+      <c r="R26" s="16">
+        <v>10.239</v>
+      </c>
       <c r="S26" s="15"/>
-      <c r="T26" t="s" s="27">
+      <c r="T26" t="s" s="28">
         <v>24</v>
       </c>
       <c r="U26" s="25">
         <v>1</v>
       </c>
-      <c r="V26" s="28">
-        <v>9.006584999999999</v>
-      </c>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
+      <c r="V26" s="29">
+        <v>9.002000000000001</v>
+      </c>
+      <c r="W26" s="16">
+        <v>8.239000000000001</v>
+      </c>
+      <c r="X26" s="16">
+        <v>10.239</v>
+      </c>
       <c r="Y26" s="15"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
@@ -2782,52 +2962,68 @@
       <c r="C27" s="25">
         <v>1</v>
       </c>
-      <c r="D27" s="28">
-        <v>109.174944603542</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="D27" s="29">
+        <v>109.1</v>
+      </c>
+      <c r="E27" s="16">
+        <v>98</v>
+      </c>
+      <c r="F27" s="16">
+        <v>115</v>
+      </c>
       <c r="G27" s="15"/>
-      <c r="H27" t="s" s="27">
+      <c r="H27" t="s" s="28">
         <v>25</v>
       </c>
       <c r="I27" s="25">
         <v>1</v>
       </c>
-      <c r="J27" s="28">
-        <v>109.139295400213</v>
-      </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
+      <c r="J27" s="29">
+        <v>109.3</v>
+      </c>
+      <c r="K27" s="16">
+        <v>98</v>
+      </c>
+      <c r="L27" s="16">
+        <v>115</v>
+      </c>
       <c r="M27" s="15"/>
-      <c r="N27" t="s" s="27">
+      <c r="N27" t="s" s="28">
         <v>25</v>
       </c>
       <c r="O27" s="25">
         <v>1</v>
       </c>
-      <c r="P27" s="28">
-        <v>109.001527642836</v>
-      </c>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
+      <c r="P27" s="29">
+        <v>109</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>98</v>
+      </c>
+      <c r="R27" s="16">
+        <v>115</v>
+      </c>
       <c r="S27" s="15"/>
-      <c r="T27" t="s" s="27">
+      <c r="T27" t="s" s="28">
         <v>25</v>
       </c>
       <c r="U27" s="25">
         <v>1</v>
       </c>
-      <c r="V27" s="28">
-        <v>109.033</v>
-      </c>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
+      <c r="V27" s="29">
+        <v>109.1</v>
+      </c>
+      <c r="W27" s="16">
+        <v>98</v>
+      </c>
+      <c r="X27" s="16">
+        <v>115</v>
+      </c>
       <c r="Y27" s="15"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="19"/>
-      <c r="B28" t="s" s="30">
+      <c r="B28" t="s" s="31">
         <v>28</v>
       </c>
       <c r="C28" s="15"/>
@@ -2835,7 +3031,7 @@
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
-      <c r="H28" t="s" s="31">
+      <c r="H28" t="s" s="32">
         <v>28</v>
       </c>
       <c r="I28" s="15"/>
@@ -2843,7 +3039,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
-      <c r="N28" t="s" s="31">
+      <c r="N28" t="s" s="32">
         <v>28</v>
       </c>
       <c r="O28" s="15"/>
@@ -2851,7 +3047,7 @@
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
-      <c r="T28" t="s" s="31">
+      <c r="T28" t="s" s="32">
         <v>28</v>
       </c>
       <c r="U28" s="15"/>
@@ -2868,47 +3064,63 @@
       <c r="C29" s="25">
         <v>1</v>
       </c>
-      <c r="D29" s="28">
-        <v>1.4088867803254</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="D29" s="29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16">
+        <v>10</v>
+      </c>
       <c r="G29" s="15"/>
-      <c r="H29" t="s" s="27">
+      <c r="H29" t="s" s="28">
         <v>22</v>
       </c>
       <c r="I29" s="25">
         <v>1</v>
       </c>
-      <c r="J29" s="28">
-        <v>0.596665925575139</v>
-      </c>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
+      <c r="J29" s="29">
+        <v>0.7649</v>
+      </c>
+      <c r="K29" s="16">
+        <v>0</v>
+      </c>
+      <c r="L29" s="16">
+        <v>10</v>
+      </c>
       <c r="M29" s="15"/>
-      <c r="N29" t="s" s="27">
+      <c r="N29" t="s" s="28">
         <v>22</v>
       </c>
       <c r="O29" s="25">
         <v>1</v>
       </c>
-      <c r="P29" s="28">
-        <v>0.557512986221765</v>
-      </c>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
+      <c r="P29" s="29">
+        <v>0.3194</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>0</v>
+      </c>
+      <c r="R29" s="16">
+        <v>10</v>
+      </c>
       <c r="S29" s="15"/>
-      <c r="T29" t="s" s="27">
+      <c r="T29" t="s" s="28">
         <v>22</v>
       </c>
       <c r="U29" s="25">
         <v>1</v>
       </c>
-      <c r="V29" s="28">
-        <v>0.494868</v>
-      </c>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
+      <c r="V29" s="29">
+        <v>0.0005689</v>
+      </c>
+      <c r="W29" s="16">
+        <v>0</v>
+      </c>
+      <c r="X29" s="16">
+        <v>10</v>
+      </c>
       <c r="Y29" s="15"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
@@ -2919,43 +3131,43 @@
       <c r="C30" s="25">
         <v>0</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="29">
         <v>0</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
-      <c r="H30" t="s" s="27">
+      <c r="H30" t="s" s="28">
         <v>23</v>
       </c>
       <c r="I30" s="25">
         <v>0</v>
       </c>
-      <c r="J30" s="28">
+      <c r="J30" s="29">
         <v>0</v>
       </c>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" t="s" s="27">
+      <c r="N30" t="s" s="28">
         <v>23</v>
       </c>
       <c r="O30" s="25">
         <v>0</v>
       </c>
-      <c r="P30" s="28">
+      <c r="P30" s="29">
         <v>0</v>
       </c>
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="15"/>
-      <c r="T30" t="s" s="27">
+      <c r="T30" t="s" s="28">
         <v>23</v>
       </c>
       <c r="U30" s="25">
         <v>0</v>
       </c>
-      <c r="V30" s="28">
+      <c r="V30" s="29">
         <v>0</v>
       </c>
       <c r="W30" s="15"/>
@@ -2970,47 +3182,63 @@
       <c r="C31" s="25">
         <v>1</v>
       </c>
-      <c r="D31" s="28">
-        <v>6.50559284117391</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="D31" s="29">
+        <v>6.529</v>
+      </c>
+      <c r="E31" s="16">
+        <v>5.349</v>
+      </c>
+      <c r="F31" s="16">
+        <v>7.349</v>
+      </c>
       <c r="G31" s="15"/>
-      <c r="H31" t="s" s="27">
+      <c r="H31" t="s" s="28">
         <v>24</v>
       </c>
       <c r="I31" s="25">
         <v>1</v>
       </c>
-      <c r="J31" s="28">
-        <v>6.49992065442384</v>
-      </c>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
+      <c r="J31" s="29">
+        <v>6.493</v>
+      </c>
+      <c r="K31" s="16">
+        <v>5.349</v>
+      </c>
+      <c r="L31" s="16">
+        <v>7.349</v>
+      </c>
       <c r="M31" s="15"/>
-      <c r="N31" t="s" s="27">
+      <c r="N31" t="s" s="28">
         <v>24</v>
       </c>
       <c r="O31" s="25">
         <v>1</v>
       </c>
-      <c r="P31" s="28">
-        <v>6.48650008503834</v>
-      </c>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
+      <c r="P31" s="29">
+        <v>6.466</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>5.349</v>
+      </c>
+      <c r="R31" s="16">
+        <v>7.349</v>
+      </c>
       <c r="S31" s="15"/>
-      <c r="T31" t="s" s="27">
+      <c r="T31" t="s" s="28">
         <v>24</v>
       </c>
       <c r="U31" s="25">
         <v>1</v>
       </c>
-      <c r="V31" s="28">
-        <v>6.49292</v>
-      </c>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
+      <c r="V31" s="29">
+        <v>6.489</v>
+      </c>
+      <c r="W31" s="16">
+        <v>5.349</v>
+      </c>
+      <c r="X31" s="16">
+        <v>7.349</v>
+      </c>
       <c r="Y31" s="15"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
@@ -3021,52 +3249,68 @@
       <c r="C32" s="25">
         <v>1</v>
       </c>
-      <c r="D32" s="28">
-        <v>51.1649514308734</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="D32" s="29">
+        <v>50.68</v>
+      </c>
+      <c r="E32" s="16">
+        <v>30</v>
+      </c>
+      <c r="F32" s="16">
+        <v>70</v>
+      </c>
       <c r="G32" s="15"/>
-      <c r="H32" t="s" s="27">
+      <c r="H32" t="s" s="28">
         <v>25</v>
       </c>
       <c r="I32" s="25">
         <v>1</v>
       </c>
-      <c r="J32" s="28">
-        <v>51.4794757164082</v>
-      </c>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
+      <c r="J32" s="29">
+        <v>51.22</v>
+      </c>
+      <c r="K32" s="16">
+        <v>30</v>
+      </c>
+      <c r="L32" s="16">
+        <v>70</v>
+      </c>
       <c r="M32" s="15"/>
-      <c r="N32" t="s" s="27">
+      <c r="N32" t="s" s="28">
         <v>25</v>
       </c>
       <c r="O32" s="25">
         <v>1</v>
       </c>
-      <c r="P32" s="28">
-        <v>51.0502450700411</v>
-      </c>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
+      <c r="P32" s="29">
+        <v>51.15</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>30</v>
+      </c>
+      <c r="R32" s="16">
+        <v>70</v>
+      </c>
       <c r="S32" s="15"/>
-      <c r="T32" t="s" s="27">
+      <c r="T32" t="s" s="28">
         <v>25</v>
       </c>
       <c r="U32" s="25">
         <v>1</v>
       </c>
-      <c r="V32" s="28">
-        <v>51.01197</v>
-      </c>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
+      <c r="V32" s="29">
+        <v>50.94</v>
+      </c>
+      <c r="W32" s="16">
+        <v>30</v>
+      </c>
+      <c r="X32" s="16">
+        <v>70</v>
+      </c>
       <c r="Y32" s="15"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" s="19"/>
-      <c r="B33" t="s" s="30">
+      <c r="B33" t="s" s="31">
         <v>29</v>
       </c>
       <c r="C33" s="15"/>
@@ -3074,7 +3318,7 @@
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
-      <c r="H33" t="s" s="31">
+      <c r="H33" t="s" s="32">
         <v>29</v>
       </c>
       <c r="I33" s="15"/>
@@ -3082,7 +3326,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
-      <c r="N33" t="s" s="31">
+      <c r="N33" t="s" s="32">
         <v>29</v>
       </c>
       <c r="O33" s="15"/>
@@ -3090,7 +3334,7 @@
       <c r="Q33" s="15"/>
       <c r="R33" s="15"/>
       <c r="S33" s="15"/>
-      <c r="T33" t="s" s="31">
+      <c r="T33" t="s" s="32">
         <v>29</v>
       </c>
       <c r="U33" s="15"/>
@@ -3107,47 +3351,63 @@
       <c r="C34" s="25">
         <v>1</v>
       </c>
-      <c r="D34" s="28">
-        <v>2.15920488458133</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="D34" s="29">
+        <v>2.59</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
+        <v>4.5</v>
+      </c>
       <c r="G34" s="15"/>
-      <c r="H34" t="s" s="27">
+      <c r="H34" t="s" s="28">
         <v>30</v>
       </c>
       <c r="I34" s="25">
         <v>1</v>
       </c>
-      <c r="J34" s="28">
-        <v>1.83496331854515</v>
-      </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
+      <c r="J34" s="29">
+        <v>2.034</v>
+      </c>
+      <c r="K34" s="16">
+        <v>0</v>
+      </c>
+      <c r="L34" s="16">
+        <v>4.5</v>
+      </c>
       <c r="M34" s="15"/>
-      <c r="N34" t="s" s="27">
+      <c r="N34" t="s" s="28">
         <v>30</v>
       </c>
       <c r="O34" s="25">
         <v>1</v>
       </c>
-      <c r="P34" s="28">
-        <v>2.28785454877381</v>
-      </c>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
+      <c r="P34" s="29">
+        <v>2.114</v>
+      </c>
+      <c r="Q34" s="16">
+        <v>0</v>
+      </c>
+      <c r="R34" s="16">
+        <v>4.5</v>
+      </c>
       <c r="S34" s="15"/>
-      <c r="T34" t="s" s="27">
+      <c r="T34" t="s" s="28">
         <v>30</v>
       </c>
       <c r="U34" s="25">
         <v>1</v>
       </c>
-      <c r="V34" s="28">
-        <v>2.41519</v>
-      </c>
-      <c r="W34" s="15"/>
-      <c r="X34" s="15"/>
+      <c r="V34" s="29">
+        <v>2.471</v>
+      </c>
+      <c r="W34" s="16">
+        <v>0</v>
+      </c>
+      <c r="X34" s="16">
+        <v>4.5</v>
+      </c>
       <c r="Y34" s="15"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
@@ -3158,47 +3418,63 @@
       <c r="C35" s="25">
         <v>1</v>
       </c>
-      <c r="D35" s="28">
-        <v>8.73030277719401</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="D35" s="29">
+        <v>11.01</v>
+      </c>
+      <c r="E35" s="16">
+        <v>2</v>
+      </c>
+      <c r="F35" s="16">
+        <v>40</v>
+      </c>
       <c r="G35" s="15"/>
-      <c r="H35" t="s" s="27">
+      <c r="H35" t="s" s="28">
         <v>31</v>
       </c>
       <c r="I35" s="25">
         <v>1</v>
       </c>
-      <c r="J35" s="28">
-        <v>8.149868712929219</v>
-      </c>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
+      <c r="J35" s="29">
+        <v>8.475</v>
+      </c>
+      <c r="K35" s="16">
+        <v>4</v>
+      </c>
+      <c r="L35" s="16">
+        <v>40</v>
+      </c>
       <c r="M35" s="15"/>
-      <c r="N35" t="s" s="27">
+      <c r="N35" t="s" s="28">
         <v>31</v>
       </c>
       <c r="O35" s="25">
         <v>1</v>
       </c>
-      <c r="P35" s="28">
-        <v>9.58060183395925</v>
-      </c>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
+      <c r="P35" s="29">
+        <v>8.803000000000001</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>4</v>
+      </c>
+      <c r="R35" s="16">
+        <v>40</v>
+      </c>
       <c r="S35" s="15"/>
-      <c r="T35" t="s" s="27">
+      <c r="T35" t="s" s="28">
         <v>31</v>
       </c>
       <c r="U35" s="25">
         <v>1</v>
       </c>
-      <c r="V35" s="28">
-        <v>10.06228</v>
-      </c>
-      <c r="W35" s="15"/>
-      <c r="X35" s="15"/>
+      <c r="V35" s="29">
+        <v>10.24</v>
+      </c>
+      <c r="W35" s="16">
+        <v>4</v>
+      </c>
+      <c r="X35" s="16">
+        <v>40</v>
+      </c>
       <c r="Y35" s="15"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
@@ -3209,47 +3485,63 @@
       <c r="C36" s="25">
         <v>1</v>
       </c>
-      <c r="D36" s="28">
-        <v>3.95254035992409</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="D36" s="29">
+        <v>3.992</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+      <c r="F36" s="16">
+        <v>4.5</v>
+      </c>
       <c r="G36" s="15"/>
-      <c r="H36" t="s" s="27">
+      <c r="H36" t="s" s="28">
         <v>32</v>
       </c>
       <c r="I36" s="25">
         <v>1</v>
       </c>
-      <c r="J36" s="28">
-        <v>4.096629479437</v>
-      </c>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
+      <c r="J36" s="29">
+        <v>4.024</v>
+      </c>
+      <c r="K36" s="16">
+        <v>0</v>
+      </c>
+      <c r="L36" s="16">
+        <v>4.5</v>
+      </c>
       <c r="M36" s="15"/>
-      <c r="N36" t="s" s="27">
+      <c r="N36" t="s" s="28">
         <v>32</v>
       </c>
       <c r="O36" s="25">
         <v>1</v>
       </c>
-      <c r="P36" s="28">
-        <v>3.85194707044471</v>
-      </c>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
+      <c r="P36" s="29">
+        <v>3.858</v>
+      </c>
+      <c r="Q36" s="16">
+        <v>0</v>
+      </c>
+      <c r="R36" s="16">
+        <v>4.5</v>
+      </c>
       <c r="S36" s="15"/>
-      <c r="T36" t="s" s="27">
+      <c r="T36" t="s" s="28">
         <v>32</v>
       </c>
       <c r="U36" s="25">
         <v>1</v>
       </c>
-      <c r="V36" s="28">
-        <v>3.96306</v>
-      </c>
-      <c r="W36" s="15"/>
-      <c r="X36" s="15"/>
+      <c r="V36" s="29">
+        <v>3.914</v>
+      </c>
+      <c r="W36" s="16">
+        <v>0</v>
+      </c>
+      <c r="X36" s="16">
+        <v>4.5</v>
+      </c>
       <c r="Y36" s="15"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
@@ -3260,47 +3552,63 @@
       <c r="C37" s="25">
         <v>1</v>
       </c>
-      <c r="D37" s="28">
-        <v>21.5551404537385</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="D37" s="29">
+        <v>17.99</v>
+      </c>
+      <c r="E37" s="16">
+        <v>2</v>
+      </c>
+      <c r="F37" s="16">
+        <v>40</v>
+      </c>
       <c r="G37" s="15"/>
-      <c r="H37" t="s" s="27">
+      <c r="H37" t="s" s="28">
         <v>33</v>
       </c>
       <c r="I37" s="25">
         <v>1</v>
       </c>
-      <c r="J37" s="28">
-        <v>18.9586535654529</v>
-      </c>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
+      <c r="J37" s="29">
+        <v>18.02</v>
+      </c>
+      <c r="K37" s="16">
+        <v>4</v>
+      </c>
+      <c r="L37" s="16">
+        <v>40</v>
+      </c>
       <c r="M37" s="15"/>
-      <c r="N37" t="s" s="27">
+      <c r="N37" t="s" s="28">
         <v>33</v>
       </c>
       <c r="O37" s="25">
         <v>1</v>
       </c>
-      <c r="P37" s="28">
-        <v>20.9305600504738</v>
-      </c>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
+      <c r="P37" s="29">
+        <v>21.03</v>
+      </c>
+      <c r="Q37" s="16">
+        <v>4</v>
+      </c>
+      <c r="R37" s="16">
+        <v>40</v>
+      </c>
       <c r="S37" s="15"/>
-      <c r="T37" t="s" s="27">
+      <c r="T37" t="s" s="28">
         <v>33</v>
       </c>
       <c r="U37" s="25">
         <v>1</v>
       </c>
-      <c r="V37" s="28">
-        <v>19.97939</v>
-      </c>
-      <c r="W37" s="15"/>
-      <c r="X37" s="15"/>
+      <c r="V37" s="29">
+        <v>20.93</v>
+      </c>
+      <c r="W37" s="16">
+        <v>4</v>
+      </c>
+      <c r="X37" s="16">
+        <v>40</v>
+      </c>
       <c r="Y37" s="15"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
@@ -3311,47 +3619,63 @@
       <c r="C38" s="25">
         <v>1</v>
       </c>
-      <c r="D38" s="28">
-        <v>2.90532624988586</v>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="D38" s="29">
+        <v>3.134</v>
+      </c>
+      <c r="E38" s="16">
+        <v>0</v>
+      </c>
+      <c r="F38" s="16">
+        <v>5.5</v>
+      </c>
       <c r="G38" s="15"/>
-      <c r="H38" t="s" s="27">
+      <c r="H38" t="s" s="28">
         <v>34</v>
       </c>
       <c r="I38" s="25">
         <v>1</v>
       </c>
-      <c r="J38" s="28">
-        <v>3.2282539745607</v>
-      </c>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
+      <c r="J38" s="29">
+        <v>3.319</v>
+      </c>
+      <c r="K38" s="16">
+        <v>0</v>
+      </c>
+      <c r="L38" s="16">
+        <v>4.5</v>
+      </c>
       <c r="M38" s="15"/>
-      <c r="N38" t="s" s="27">
+      <c r="N38" t="s" s="28">
         <v>34</v>
       </c>
       <c r="O38" s="25">
         <v>1</v>
       </c>
-      <c r="P38" s="28">
-        <v>2.72621877327959</v>
-      </c>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
+      <c r="P38" s="29">
+        <v>2.791</v>
+      </c>
+      <c r="Q38" s="16">
+        <v>0</v>
+      </c>
+      <c r="R38" s="16">
+        <v>4.5</v>
+      </c>
       <c r="S38" s="15"/>
-      <c r="T38" t="s" s="27">
+      <c r="T38" t="s" s="28">
         <v>34</v>
       </c>
       <c r="U38" s="25">
         <v>1</v>
       </c>
-      <c r="V38" s="28">
-        <v>2.711236</v>
-      </c>
-      <c r="W38" s="15"/>
-      <c r="X38" s="15"/>
+      <c r="V38" s="29">
+        <v>2.501</v>
+      </c>
+      <c r="W38" s="16">
+        <v>0</v>
+      </c>
+      <c r="X38" s="16">
+        <v>4.5</v>
+      </c>
       <c r="Y38" s="15"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
@@ -3362,47 +3686,63 @@
       <c r="C39" s="25">
         <v>1</v>
       </c>
-      <c r="D39" s="28">
-        <v>6.87010630605924</v>
-      </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="D39" s="29">
+        <v>10.64</v>
+      </c>
+      <c r="E39" s="16">
+        <v>2</v>
+      </c>
+      <c r="F39" s="16">
+        <v>40</v>
+      </c>
       <c r="G39" s="15"/>
-      <c r="H39" t="s" s="27">
+      <c r="H39" t="s" s="28">
         <v>35</v>
       </c>
       <c r="I39" s="25">
         <v>1</v>
       </c>
-      <c r="J39" s="28">
-        <v>13.9491372368732</v>
-      </c>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
+      <c r="J39" s="29">
+        <v>15.04</v>
+      </c>
+      <c r="K39" s="16">
+        <v>4</v>
+      </c>
+      <c r="L39" s="16">
+        <v>40</v>
+      </c>
       <c r="M39" s="15"/>
-      <c r="N39" t="s" s="27">
+      <c r="N39" t="s" s="28">
         <v>35</v>
       </c>
       <c r="O39" s="25">
         <v>1</v>
       </c>
-      <c r="P39" s="28">
-        <v>5.7490451635557</v>
-      </c>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
+      <c r="P39" s="29">
+        <v>6.173</v>
+      </c>
+      <c r="Q39" s="16">
+        <v>4</v>
+      </c>
+      <c r="R39" s="16">
+        <v>40</v>
+      </c>
       <c r="S39" s="15"/>
-      <c r="T39" t="s" s="27">
+      <c r="T39" t="s" s="28">
         <v>35</v>
       </c>
       <c r="U39" s="25">
         <v>1</v>
       </c>
-      <c r="V39" s="28">
-        <v>5.02401799</v>
-      </c>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
+      <c r="V39" s="29">
+        <v>4.099</v>
+      </c>
+      <c r="W39" s="16">
+        <v>4</v>
+      </c>
+      <c r="X39" s="16">
+        <v>40</v>
+      </c>
       <c r="Y39" s="15"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
@@ -3413,47 +3753,63 @@
       <c r="C40" s="25">
         <v>1</v>
       </c>
-      <c r="D40" s="28">
-        <v>3.92761261190687</v>
-      </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="D40" s="29">
+        <v>3.945</v>
+      </c>
+      <c r="E40" s="16">
+        <v>0</v>
+      </c>
+      <c r="F40" s="16">
+        <v>4.5</v>
+      </c>
       <c r="G40" s="15"/>
-      <c r="H40" t="s" s="27">
+      <c r="H40" t="s" s="28">
         <v>36</v>
       </c>
       <c r="I40" s="25">
         <v>1</v>
       </c>
-      <c r="J40" s="28">
-        <v>4.2284069659501</v>
-      </c>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
+      <c r="J40" s="29">
+        <v>4.152</v>
+      </c>
+      <c r="K40" s="16">
+        <v>0</v>
+      </c>
+      <c r="L40" s="16">
+        <v>4.5</v>
+      </c>
       <c r="M40" s="15"/>
-      <c r="N40" t="s" s="27">
+      <c r="N40" t="s" s="28">
         <v>36</v>
       </c>
       <c r="O40" s="25">
         <v>1</v>
       </c>
-      <c r="P40" s="28">
-        <v>3.6590707202965</v>
-      </c>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
+      <c r="P40" s="29">
+        <v>3.652</v>
+      </c>
+      <c r="Q40" s="16">
+        <v>0</v>
+      </c>
+      <c r="R40" s="16">
+        <v>4.5</v>
+      </c>
       <c r="S40" s="15"/>
-      <c r="T40" t="s" s="27">
+      <c r="T40" t="s" s="28">
         <v>37</v>
       </c>
       <c r="U40" s="25">
         <v>1</v>
       </c>
-      <c r="V40" s="28">
-        <v>3.69968</v>
-      </c>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
+      <c r="V40" s="29">
+        <v>3.687</v>
+      </c>
+      <c r="W40" s="16">
+        <v>0</v>
+      </c>
+      <c r="X40" s="16">
+        <v>4.5</v>
+      </c>
       <c r="Y40" s="15"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
@@ -3464,47 +3820,63 @@
       <c r="C41" s="25">
         <v>1</v>
       </c>
-      <c r="D41" s="28">
-        <v>12.6049287972002</v>
-      </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+      <c r="D41" s="29">
+        <v>8.638</v>
+      </c>
+      <c r="E41" s="16">
+        <v>2</v>
+      </c>
+      <c r="F41" s="16">
+        <v>40</v>
+      </c>
       <c r="G41" s="15"/>
-      <c r="H41" t="s" s="27">
+      <c r="H41" t="s" s="28">
         <v>38</v>
       </c>
       <c r="I41" s="25">
         <v>1</v>
       </c>
-      <c r="J41" s="28">
-        <v>5.30015584358751</v>
-      </c>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
+      <c r="J41" s="29">
+        <v>5.94</v>
+      </c>
+      <c r="K41" s="16">
+        <v>4</v>
+      </c>
+      <c r="L41" s="16">
+        <v>25</v>
+      </c>
       <c r="M41" s="15"/>
-      <c r="N41" t="s" s="27">
+      <c r="N41" t="s" s="28">
         <v>38</v>
       </c>
       <c r="O41" s="25">
         <v>1</v>
       </c>
-      <c r="P41" s="28">
-        <v>37.166124918701</v>
-      </c>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
+      <c r="P41" s="29">
+        <v>36.18</v>
+      </c>
+      <c r="Q41" s="16">
+        <v>25</v>
+      </c>
+      <c r="R41" s="16">
+        <v>50</v>
+      </c>
       <c r="S41" s="15"/>
-      <c r="T41" t="s" s="27">
+      <c r="T41" t="s" s="28">
         <v>39</v>
       </c>
       <c r="U41" s="25">
         <v>1</v>
       </c>
-      <c r="V41" s="28">
-        <v>109.1646</v>
-      </c>
-      <c r="W41" s="15"/>
-      <c r="X41" s="15"/>
+      <c r="V41" s="29">
+        <v>104.1</v>
+      </c>
+      <c r="W41" s="16">
+        <v>4</v>
+      </c>
+      <c r="X41" s="16">
+        <v>400</v>
+      </c>
       <c r="Y41" s="15"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
@@ -3515,39 +3887,51 @@
       <c r="C42" s="25">
         <v>1</v>
       </c>
-      <c r="D42" s="28">
-        <v>3.66476291088885</v>
-      </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
+      <c r="D42" s="29">
+        <v>3.676</v>
+      </c>
+      <c r="E42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F42" s="16">
+        <v>4.5</v>
+      </c>
       <c r="G42" s="15"/>
-      <c r="H42" t="s" s="27">
+      <c r="H42" t="s" s="28">
         <v>37</v>
       </c>
       <c r="I42" s="25">
         <v>1</v>
       </c>
-      <c r="J42" s="28">
-        <v>3.67589063749071</v>
-      </c>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
+      <c r="J42" s="29">
+        <v>3.65</v>
+      </c>
+      <c r="K42" s="16">
+        <v>0</v>
+      </c>
+      <c r="L42" s="16">
+        <v>4.5</v>
+      </c>
       <c r="M42" s="15"/>
-      <c r="N42" t="s" s="27">
+      <c r="N42" t="s" s="28">
         <v>37</v>
       </c>
       <c r="O42" s="25">
         <v>1</v>
       </c>
-      <c r="P42" s="28">
-        <v>3.83337445033658</v>
-      </c>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
+      <c r="P42" s="29">
+        <v>3.83</v>
+      </c>
+      <c r="Q42" s="16">
+        <v>0</v>
+      </c>
+      <c r="R42" s="16">
+        <v>4.5</v>
+      </c>
       <c r="S42" s="15"/>
       <c r="T42" s="15"/>
       <c r="U42" s="14"/>
-      <c r="V42" s="28"/>
+      <c r="V42" s="29"/>
       <c r="W42" s="15"/>
       <c r="X42" s="15"/>
       <c r="Y42" s="15"/>
@@ -3560,46 +3944,58 @@
       <c r="C43" s="25">
         <v>1</v>
       </c>
-      <c r="D43" s="28">
-        <v>94.4295437491093</v>
-      </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
+      <c r="D43" s="29">
+        <v>103.1</v>
+      </c>
+      <c r="E43" s="16">
+        <v>4</v>
+      </c>
+      <c r="F43" s="16">
+        <v>400</v>
+      </c>
       <c r="G43" s="15"/>
-      <c r="H43" t="s" s="27">
+      <c r="H43" t="s" s="28">
         <v>39</v>
       </c>
       <c r="I43" s="25">
         <v>1</v>
       </c>
-      <c r="J43" s="28">
-        <v>94.8034666980675</v>
-      </c>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
+      <c r="J43" s="29">
+        <v>90.02</v>
+      </c>
+      <c r="K43" s="16">
+        <v>4</v>
+      </c>
+      <c r="L43" s="16">
+        <v>400</v>
+      </c>
       <c r="M43" s="15"/>
-      <c r="N43" t="s" s="27">
+      <c r="N43" t="s" s="28">
         <v>39</v>
       </c>
       <c r="O43" s="25">
         <v>1</v>
       </c>
-      <c r="P43" s="28">
-        <v>167.725698610214</v>
-      </c>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
+      <c r="P43" s="29">
+        <v>162.8</v>
+      </c>
+      <c r="Q43" s="16">
+        <v>4</v>
+      </c>
+      <c r="R43" s="16">
+        <v>400</v>
+      </c>
       <c r="S43" s="15"/>
       <c r="T43" s="15"/>
       <c r="U43" s="14"/>
-      <c r="V43" s="28"/>
+      <c r="V43" s="29"/>
       <c r="W43" s="15"/>
       <c r="X43" s="15"/>
       <c r="Y43" s="15"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" s="19"/>
-      <c r="B44" t="s" s="30">
+      <c r="B44" t="s" s="31">
         <v>40</v>
       </c>
       <c r="C44" s="15"/>
@@ -3607,7 +4003,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
-      <c r="H44" t="s" s="31">
+      <c r="H44" t="s" s="32">
         <v>40</v>
       </c>
       <c r="I44" s="15"/>
@@ -3615,7 +4011,7 @@
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
-      <c r="N44" t="s" s="31">
+      <c r="N44" t="s" s="32">
         <v>40</v>
       </c>
       <c r="O44" s="15"/>
@@ -3623,7 +4019,7 @@
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
-      <c r="T44" t="s" s="31">
+      <c r="T44" t="s" s="32">
         <v>40</v>
       </c>
       <c r="U44" s="15"/>
@@ -3640,47 +4036,63 @@
       <c r="C45" s="25">
         <v>1</v>
       </c>
-      <c r="D45" s="28">
-        <v>9.66315878940811</v>
-      </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
+      <c r="D45" s="29">
+        <v>9.757</v>
+      </c>
+      <c r="E45" s="16">
+        <v>0</v>
+      </c>
+      <c r="F45" s="16">
+        <v>20</v>
+      </c>
       <c r="G45" s="15"/>
-      <c r="H45" t="s" s="27">
+      <c r="H45" t="s" s="28">
         <v>22</v>
       </c>
       <c r="I45" s="25">
         <v>1</v>
       </c>
-      <c r="J45" s="28">
-        <v>9.777689155427881</v>
-      </c>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
+      <c r="J45" s="29">
+        <v>9.718</v>
+      </c>
+      <c r="K45" s="16">
+        <v>0</v>
+      </c>
+      <c r="L45" s="16">
+        <v>20</v>
+      </c>
       <c r="M45" s="15"/>
-      <c r="N45" t="s" s="27">
+      <c r="N45" t="s" s="28">
         <v>22</v>
       </c>
       <c r="O45" s="25">
         <v>1</v>
       </c>
-      <c r="P45" s="28">
-        <v>10.2987712703635</v>
-      </c>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
+      <c r="P45" s="29">
+        <v>10.41</v>
+      </c>
+      <c r="Q45" s="16">
+        <v>0</v>
+      </c>
+      <c r="R45" s="16">
+        <v>20</v>
+      </c>
       <c r="S45" s="15"/>
-      <c r="T45" t="s" s="27">
+      <c r="T45" t="s" s="28">
         <v>22</v>
       </c>
       <c r="U45" s="25">
         <v>1</v>
       </c>
-      <c r="V45" s="28">
-        <v>9.569534000000001</v>
-      </c>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
+      <c r="V45" s="29">
+        <v>9.618</v>
+      </c>
+      <c r="W45" s="16">
+        <v>0</v>
+      </c>
+      <c r="X45" s="16">
+        <v>20</v>
+      </c>
       <c r="Y45" s="15"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
@@ -3691,43 +4103,43 @@
       <c r="C46" s="25">
         <v>0</v>
       </c>
-      <c r="D46" s="28">
+      <c r="D46" s="29">
         <v>0</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
-      <c r="H46" t="s" s="27">
+      <c r="H46" t="s" s="28">
         <v>23</v>
       </c>
       <c r="I46" s="25">
         <v>0</v>
       </c>
-      <c r="J46" s="28">
+      <c r="J46" s="29">
         <v>0</v>
       </c>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
-      <c r="N46" t="s" s="27">
+      <c r="N46" t="s" s="28">
         <v>23</v>
       </c>
       <c r="O46" s="25">
         <v>0</v>
       </c>
-      <c r="P46" s="28">
+      <c r="P46" s="29">
         <v>0</v>
       </c>
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
-      <c r="T46" t="s" s="27">
+      <c r="T46" t="s" s="28">
         <v>23</v>
       </c>
       <c r="U46" s="25">
         <v>0</v>
       </c>
-      <c r="V46" s="28">
+      <c r="V46" s="29">
         <v>0</v>
       </c>
       <c r="W46" s="15"/>
@@ -3742,47 +4154,63 @@
       <c r="C47" s="25">
         <v>1</v>
       </c>
-      <c r="D47" s="28">
-        <v>4.14747579354804</v>
-      </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
+      <c r="D47" s="29">
+        <v>4.156</v>
+      </c>
+      <c r="E47" s="16">
+        <v>2.705</v>
+      </c>
+      <c r="F47" s="16">
+        <v>4.705</v>
+      </c>
       <c r="G47" s="15"/>
-      <c r="H47" t="s" s="27">
+      <c r="H47" t="s" s="28">
         <v>24</v>
       </c>
       <c r="I47" s="25">
         <v>1</v>
       </c>
-      <c r="J47" s="28">
-        <v>4.11171861593548</v>
-      </c>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
+      <c r="J47" s="29">
+        <v>4.114</v>
+      </c>
+      <c r="K47" s="16">
+        <v>2.705</v>
+      </c>
+      <c r="L47" s="16">
+        <v>4.705</v>
+      </c>
       <c r="M47" s="15"/>
-      <c r="N47" t="s" s="27">
+      <c r="N47" t="s" s="28">
         <v>24</v>
       </c>
       <c r="O47" s="25">
         <v>1</v>
       </c>
-      <c r="P47" s="28">
-        <v>4.32497906895195</v>
-      </c>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
+      <c r="P47" s="29">
+        <v>4.332</v>
+      </c>
+      <c r="Q47" s="16">
+        <v>2.705</v>
+      </c>
+      <c r="R47" s="16">
+        <v>4.705</v>
+      </c>
       <c r="S47" s="15"/>
-      <c r="T47" t="s" s="27">
+      <c r="T47" t="s" s="28">
         <v>24</v>
       </c>
       <c r="U47" s="25">
         <v>1</v>
       </c>
-      <c r="V47" s="28">
-        <v>4.11322</v>
-      </c>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
+      <c r="V47" s="29">
+        <v>4.122</v>
+      </c>
+      <c r="W47" s="16">
+        <v>2.705</v>
+      </c>
+      <c r="X47" s="16">
+        <v>4.705</v>
+      </c>
       <c r="Y47" s="15"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
@@ -3793,52 +4221,68 @@
       <c r="C48" s="25">
         <v>1</v>
       </c>
-      <c r="D48" s="28">
-        <v>139.156415600477</v>
-      </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
+      <c r="D48" s="29">
+        <v>132.6</v>
+      </c>
+      <c r="E48" s="16">
+        <v>100</v>
+      </c>
+      <c r="F48" s="16">
+        <v>400</v>
+      </c>
       <c r="G48" s="15"/>
-      <c r="H48" t="s" s="27">
+      <c r="H48" t="s" s="28">
         <v>25</v>
       </c>
       <c r="I48" s="25">
         <v>1</v>
       </c>
-      <c r="J48" s="28">
-        <v>142.102786470752</v>
-      </c>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
+      <c r="J48" s="29">
+        <v>145.8</v>
+      </c>
+      <c r="K48" s="16">
+        <v>4</v>
+      </c>
+      <c r="L48" s="16">
+        <v>400</v>
+      </c>
       <c r="M48" s="15"/>
-      <c r="N48" t="s" s="27">
+      <c r="N48" t="s" s="28">
         <v>25</v>
       </c>
       <c r="O48" s="25">
         <v>1</v>
       </c>
-      <c r="P48" s="28">
-        <v>42.1648071942126</v>
-      </c>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
+      <c r="P48" s="29">
+        <v>48.52</v>
+      </c>
+      <c r="Q48" s="16">
+        <v>4</v>
+      </c>
+      <c r="R48" s="16">
+        <v>400</v>
+      </c>
       <c r="S48" s="15"/>
-      <c r="T48" t="s" s="27">
+      <c r="T48" t="s" s="28">
         <v>25</v>
       </c>
       <c r="U48" s="25">
         <v>1</v>
       </c>
-      <c r="V48" s="28">
-        <v>139.31219</v>
-      </c>
-      <c r="W48" s="15"/>
-      <c r="X48" s="15"/>
+      <c r="V48" s="29">
+        <v>144.4</v>
+      </c>
+      <c r="W48" s="16">
+        <v>4</v>
+      </c>
+      <c r="X48" s="16">
+        <v>400</v>
+      </c>
       <c r="Y48" s="15"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" s="19"/>
-      <c r="B49" t="s" s="30">
+      <c r="B49" t="s" s="31">
         <v>41</v>
       </c>
       <c r="C49" s="15"/>
@@ -3846,7 +4290,7 @@
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
-      <c r="H49" t="s" s="31">
+      <c r="H49" t="s" s="32">
         <v>41</v>
       </c>
       <c r="I49" s="15"/>
@@ -3854,7 +4298,7 @@
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
-      <c r="N49" t="s" s="31">
+      <c r="N49" t="s" s="32">
         <v>41</v>
       </c>
       <c r="O49" s="15"/>
@@ -3862,7 +4306,7 @@
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
-      <c r="T49" t="s" s="31">
+      <c r="T49" t="s" s="32">
         <v>41</v>
       </c>
       <c r="U49" s="15"/>
@@ -3876,48 +4320,32 @@
       <c r="B50" t="s" s="24">
         <v>42</v>
       </c>
-      <c r="C50" s="25">
-        <v>1</v>
-      </c>
-      <c r="D50" s="28">
-        <v>0.155164645728817</v>
-      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="29"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
-      <c r="H50" t="s" s="27">
+      <c r="H50" t="s" s="28">
         <v>42</v>
       </c>
-      <c r="I50" s="25">
-        <v>1</v>
-      </c>
-      <c r="J50" s="28">
-        <v>0.485119702370856</v>
-      </c>
+      <c r="I50" s="14"/>
+      <c r="J50" s="29"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
-      <c r="N50" t="s" s="27">
+      <c r="N50" t="s" s="28">
         <v>42</v>
       </c>
-      <c r="O50" s="25">
-        <v>1</v>
-      </c>
-      <c r="P50" s="28">
-        <v>0.227767161781434</v>
-      </c>
+      <c r="O50" s="14"/>
+      <c r="P50" s="29"/>
       <c r="Q50" s="15"/>
       <c r="R50" s="15"/>
       <c r="S50" s="15"/>
-      <c r="T50" t="s" s="27">
+      <c r="T50" t="s" s="28">
         <v>42</v>
       </c>
-      <c r="U50" s="25">
-        <v>1</v>
-      </c>
-      <c r="V50" s="28">
-        <v>0.30627</v>
-      </c>
+      <c r="U50" s="14"/>
+      <c r="V50" s="29"/>
       <c r="W50" s="15"/>
       <c r="X50" s="15"/>
       <c r="Y50" s="15"/>
@@ -3927,48 +4355,32 @@
       <c r="B51" t="s" s="24">
         <v>43</v>
       </c>
-      <c r="C51" s="25">
-        <v>1</v>
-      </c>
-      <c r="D51" s="28">
-        <v>0.415760059322288</v>
-      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="29"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
-      <c r="H51" t="s" s="27">
+      <c r="H51" t="s" s="28">
         <v>43</v>
       </c>
-      <c r="I51" s="25">
-        <v>1</v>
-      </c>
-      <c r="J51" s="28">
-        <v>0.41894052034589</v>
-      </c>
+      <c r="I51" s="14"/>
+      <c r="J51" s="29"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
-      <c r="N51" t="s" s="27">
+      <c r="N51" t="s" s="28">
         <v>43</v>
       </c>
-      <c r="O51" s="25">
-        <v>1</v>
-      </c>
-      <c r="P51" s="28">
-        <v>0.211798982706409</v>
-      </c>
+      <c r="O51" s="14"/>
+      <c r="P51" s="29"/>
       <c r="Q51" s="15"/>
       <c r="R51" s="15"/>
       <c r="S51" s="15"/>
-      <c r="T51" t="s" s="27">
+      <c r="T51" t="s" s="28">
         <v>43</v>
       </c>
-      <c r="U51" s="25">
-        <v>1</v>
-      </c>
-      <c r="V51" s="28">
-        <v>0.3364</v>
-      </c>
+      <c r="U51" s="14"/>
+      <c r="V51" s="29"/>
       <c r="W51" s="15"/>
       <c r="X51" s="15"/>
       <c r="Y51" s="15"/>
@@ -3978,48 +4390,32 @@
       <c r="B52" t="s" s="24">
         <v>44</v>
       </c>
-      <c r="C52" s="25">
-        <v>1</v>
-      </c>
-      <c r="D52" s="28">
-        <v>0.270235072294635</v>
-      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="29"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
-      <c r="H52" t="s" s="27">
+      <c r="H52" t="s" s="28">
         <v>44</v>
       </c>
-      <c r="I52" s="25">
-        <v>1</v>
-      </c>
-      <c r="J52" s="28">
-        <v>0.142471834649168</v>
-      </c>
+      <c r="I52" s="14"/>
+      <c r="J52" s="29"/>
       <c r="K52" s="15"/>
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
-      <c r="N52" t="s" s="27">
+      <c r="N52" t="s" s="28">
         <v>44</v>
       </c>
-      <c r="O52" s="25">
-        <v>1</v>
-      </c>
-      <c r="P52" s="28">
-        <v>0.20362096060852</v>
-      </c>
+      <c r="O52" s="14"/>
+      <c r="P52" s="29"/>
       <c r="Q52" s="15"/>
       <c r="R52" s="15"/>
       <c r="S52" s="15"/>
-      <c r="T52" t="s" s="27">
+      <c r="T52" t="s" s="28">
         <v>45</v>
       </c>
-      <c r="U52" s="25">
-        <v>1</v>
-      </c>
-      <c r="V52" s="28">
-        <v>0.1768</v>
-      </c>
+      <c r="U52" s="14"/>
+      <c r="V52" s="29"/>
       <c r="W52" s="15"/>
       <c r="X52" s="15"/>
       <c r="Y52" s="15"/>
@@ -4029,48 +4425,32 @@
       <c r="B53" t="s" s="24">
         <v>46</v>
       </c>
-      <c r="C53" s="25">
-        <v>1</v>
-      </c>
-      <c r="D53" s="28">
-        <v>0.084001621428373</v>
-      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="29"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
-      <c r="H53" t="s" s="27">
+      <c r="H53" t="s" s="28">
         <v>46</v>
       </c>
-      <c r="I53" s="25">
-        <v>1</v>
-      </c>
-      <c r="J53" s="28">
-        <v>0.363225941001331</v>
-      </c>
+      <c r="I53" s="14"/>
+      <c r="J53" s="29"/>
       <c r="K53" s="15"/>
       <c r="L53" s="15"/>
       <c r="M53" s="15"/>
-      <c r="N53" t="s" s="27">
+      <c r="N53" t="s" s="28">
         <v>46</v>
       </c>
-      <c r="O53" s="25">
-        <v>1</v>
-      </c>
-      <c r="P53" s="28">
-        <v>0.0661651216911516</v>
-      </c>
+      <c r="O53" s="14"/>
+      <c r="P53" s="29"/>
       <c r="Q53" s="15"/>
       <c r="R53" s="15"/>
       <c r="S53" s="15"/>
-      <c r="T53" t="s" s="27">
+      <c r="T53" t="s" s="28">
         <v>47</v>
       </c>
-      <c r="U53" s="25">
-        <v>1</v>
-      </c>
-      <c r="V53" s="28">
-        <v>0.50092</v>
-      </c>
+      <c r="U53" s="14"/>
+      <c r="V53" s="29"/>
       <c r="W53" s="15"/>
       <c r="X53" s="15"/>
       <c r="Y53" s="15"/>
@@ -4080,42 +4460,30 @@
       <c r="B54" t="s" s="24">
         <v>47</v>
       </c>
-      <c r="C54" s="25">
-        <v>1</v>
-      </c>
-      <c r="D54" s="28">
-        <v>0.539032314597653</v>
-      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="29"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
-      <c r="H54" t="s" s="27">
+      <c r="H54" t="s" s="28">
         <v>47</v>
       </c>
-      <c r="I54" s="25">
-        <v>1</v>
-      </c>
-      <c r="J54" s="28">
-        <v>0.521700624152352</v>
-      </c>
+      <c r="I54" s="14"/>
+      <c r="J54" s="29"/>
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
-      <c r="N54" t="s" s="27">
+      <c r="N54" t="s" s="28">
         <v>47</v>
       </c>
-      <c r="O54" s="25">
-        <v>1</v>
-      </c>
-      <c r="P54" s="28">
-        <v>0.51852083590912</v>
-      </c>
+      <c r="O54" s="14"/>
+      <c r="P54" s="29"/>
       <c r="Q54" s="15"/>
       <c r="R54" s="15"/>
       <c r="S54" s="15"/>
       <c r="T54" s="15"/>
       <c r="U54" s="14"/>
-      <c r="V54" s="28"/>
+      <c r="V54" s="29"/>
       <c r="W54" s="15"/>
       <c r="X54" s="15"/>
       <c r="Y54" s="15"/>
@@ -4124,25 +4492,25 @@
       <c r="A55" s="19"/>
       <c r="B55" s="20"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="28"/>
+      <c r="D55" s="29"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="14"/>
-      <c r="J55" s="28"/>
+      <c r="J55" s="29"/>
       <c r="K55" s="15"/>
       <c r="L55" s="15"/>
       <c r="M55" s="15"/>
       <c r="N55" s="15"/>
       <c r="O55" s="14"/>
-      <c r="P55" s="28"/>
+      <c r="P55" s="29"/>
       <c r="Q55" s="15"/>
       <c r="R55" s="15"/>
       <c r="S55" s="15"/>
       <c r="T55" s="15"/>
       <c r="U55" s="14"/>
-      <c r="V55" s="28"/>
+      <c r="V55" s="29"/>
       <c r="W55" s="15"/>
       <c r="X55" s="15"/>
       <c r="Y55" s="15"/>
